--- a/gz.tpl.xlsx
+++ b/gz.tpl.xlsx
@@ -2128,9 +2128,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2215,165 +2212,14 @@
     <xf numFmtId="10" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2705,7 +2551,7 @@
   <dimension ref="A1:AF47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2724,27 +2570,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="str">
+      <c r="A1" s="71" t="str">
         <f>"近"&amp;G1&amp;"年历史统计"</f>
         <v>近10年历史统计</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="4">
         <v>10</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
       <c r="P1" s="8">
         <v>0.15</v>
       </c>
@@ -3522,40 +3368,40 @@
       <c r="Z16" s="37"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="47" t="s">
         <v>548</v>
       </c>
       <c r="Y17" t="s">
@@ -3567,50 +3413,50 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>553</v>
       </c>
-      <c r="B18" s="50" t="str">
+      <c r="B18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:F,COLUMN(),0)</f>
         <v>2020-12-31</v>
       </c>
-      <c r="C18" s="50" t="str">
+      <c r="C18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:G,COLUMN(),0)</f>
         <v>2019-12-31</v>
       </c>
-      <c r="D18" s="50" t="str">
+      <c r="D18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:H,COLUMN(),0)</f>
         <v>2018-12-31</v>
       </c>
-      <c r="E18" s="50" t="str">
+      <c r="E18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:I,COLUMN(),0)</f>
         <v>2017-12-31</v>
       </c>
-      <c r="F18" s="50" t="str">
+      <c r="F18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:J,COLUMN(),0)</f>
         <v>2016-12-31</v>
       </c>
-      <c r="G18" s="50" t="str">
+      <c r="G18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:K,COLUMN(),0)</f>
         <v>2015-12-31</v>
       </c>
-      <c r="H18" s="50" t="str">
+      <c r="H18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:L,COLUMN(),0)</f>
         <v>2014-12-31</v>
       </c>
-      <c r="I18" s="50" t="str">
+      <c r="I18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:M,COLUMN(),0)</f>
         <v>2013-12-31</v>
       </c>
-      <c r="J18" s="50" t="str">
+      <c r="J18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:N,COLUMN(),0)</f>
         <v>2012-12-31</v>
       </c>
-      <c r="K18" s="50" t="str">
+      <c r="K18" s="49" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:O,COLUMN(),0)</f>
         <v>2011-12-31</v>
       </c>
-      <c r="L18" s="51" t="str">
+      <c r="L18" s="50" t="str">
         <f>VLOOKUP("*报告年度",利润表!$B:P,COLUMN(),0)</f>
         <v>2010-12-31</v>
       </c>
@@ -3626,50 +3472,50 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:F,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:F,COLUMN(),0)</f>
         <v>0.26833830348235499</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:G,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:G,COLUMN(),0)</f>
         <v>0.22476514190039323</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:H,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:H,COLUMN(),0)</f>
         <v>0.13252447997200614</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:I,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:I,COLUMN(),0)</f>
         <v>4.5992281852084552E-2</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:J,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:J,COLUMN(),0)</f>
         <v>3.7723248491740241E-3</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:K,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:K,COLUMN(),0)</f>
         <v>1.1148353025431718E-4</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:L,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:L,COLUMN(),0)</f>
         <v>1.9042200767494605E-2</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:M,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:M,COLUMN(),0)</f>
         <v>9.5220024618091759E-2</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:N,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:N,COLUMN(),0)</f>
         <v>0.19195240937928262</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="52">
         <f>VLOOKUP("净利润",利润表!$B:O,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:O,COLUMN(),0)</f>
         <v>0.32361637327617798</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="53">
         <f>VLOOKUP("净利润",利润表!$B:P,COLUMN(),0)/VLOOKUP("股东权益合计",资产负债表!$B:P,COLUMN(),0)</f>
         <v>0.21806731649057384</v>
       </c>
@@ -3684,50 +3530,50 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:F,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:F,COLUMN(),0)</f>
         <v>0.12283884511252757</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:G,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:G,COLUMN(),0)</f>
         <v>9.8693587048107517E-2</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:H,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:H,COLUMN(),0)</f>
         <v>6.451134040268279E-2</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:I,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:I,COLUMN(),0)</f>
         <v>2.2441057341151996E-2</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:J,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:J,COLUMN(),0)</f>
         <v>1.8574874113351945E-3</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:K,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:K,COLUMN(),0)</f>
         <v>5.2048042159880134E-5</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:L,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:L,COLUMN(),0)</f>
         <v>9.0356939145239991E-3</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:M,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:M,COLUMN(),0)</f>
         <v>4.1950032126857321E-2</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:N,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:N,COLUMN(),0)</f>
         <v>8.6190313634910518E-2</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="54">
         <f>VLOOKUP("净利润",利润表!$B:O,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:O,COLUMN(),0)</f>
         <v>0.13918803436403626</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="55">
         <f>VLOOKUP("净利润",利润表!$B:P,COLUMN(),0)/VLOOKUP("负债和股东权益合计",资产负债表!$B:P,COLUMN(),0)</f>
         <v>9.6590131229894641E-2</v>
       </c>
@@ -3743,100 +3589,100 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:F,COLUMN(),0)</f>
         <v>119930784000</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:G,COLUMN(),0)</f>
         <v>116466007000</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:H,COLUMN(),0)</f>
         <v>97711301000</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:I,COLUMN(),0)</f>
         <v>99241536000</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:J,COLUMN(),0)</f>
         <v>88183101000</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:K,COLUMN(),0)</f>
         <v>86958122000</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:L,COLUMN(),0)</f>
         <v>83665074000</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:M,COLUMN(),0)</f>
         <v>73774723000</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:N,COLUMN(),0)</f>
         <v>69737326000</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="56">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:O,COLUMN(),0)</f>
         <v>67258339000</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="57">
         <f>VLOOKUP("负债和股东权益合计",资产负债表!$B:P,COLUMN(),0)</f>
         <v>63816328000</v>
       </c>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:F,COLUMN(),0)</f>
         <v>14732159000</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:G,COLUMN(),0)</f>
         <v>11494448000</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:H,COLUMN(),0)</f>
         <v>6303487000</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:I,COLUMN(),0)</f>
         <v>2227085000</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:J,COLUMN(),0)</f>
         <v>163799000</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:K,COLUMN(),0)</f>
         <v>4526000</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:L,COLUMN(),0)</f>
         <v>755972000</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:M,COLUMN(),0)</f>
         <v>3094852000</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:N,COLUMN(),0)</f>
         <v>6010682000</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="59">
         <f>VLOOKUP("净利润",利润表!$B:O,COLUMN(),0)</f>
         <v>9361556000</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="60">
         <f>VLOOKUP("净利润",利润表!$B:P,COLUMN(),0)</f>
         <v>6164027496.1300001</v>
       </c>
@@ -3846,50 +3692,50 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:F,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:F,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:F,COLUMN()+1,0)</f>
         <v>0.28167607526694627</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:G,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:G,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:G,COLUMN()+1,0)</f>
         <v>0.82350625931329757</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:H,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:H,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:H,COLUMN()+1,0)</f>
         <v>1.8303755806356741</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:I,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:I,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:I,COLUMN()+1,0)</f>
         <v>12.596450527781</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:J,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:J,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:J,COLUMN()+1,0)</f>
         <v>35.190676093680956</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:K,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:K,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:K,COLUMN()+1,0)</f>
         <v>-0.99401300577270058</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:L,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:L,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:L,COLUMN()+1,0)</f>
         <v>-0.75573242274590191</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:M,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:M,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:M,COLUMN()+1,0)</f>
         <v>-0.48510801270138731</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:N,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:N,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:N,COLUMN()+1,0)</f>
         <v>-0.35793985529755951</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="52">
         <f>(VLOOKUP($A$22,利润表!$B:O,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:O,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:O,COLUMN()+1,0)</f>
         <v>0.51874014284938286</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="53">
         <f>(VLOOKUP($A$22,利润表!$B:P,COLUMN(),0)-VLOOKUP($A$22,利润表!$B:P,COLUMN()+1,0))/VLOOKUP($A$22,利润表!$B:P,COLUMN()+1,0)</f>
         <v>1.0394236730097302</v>
       </c>
@@ -3908,50 +3754,50 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:F,COLUMN(),0)</f>
         <v>89867090000</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:G,COLUMN(),0)</f>
         <v>75665760000</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:H,COLUMN(),0)</f>
         <v>55821504000</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:I,COLUMN(),0)</f>
         <v>38335087000</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:J,COLUMN(),0)</f>
         <v>23280072000</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:K,COLUMN(),0)</f>
         <v>23470343000</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:L,COLUMN(),0)</f>
         <v>30364721000</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:M,COLUMN(),0)</f>
         <v>37327890000</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:N,COLUMN(),0)</f>
         <v>46830535000</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="59">
         <f>VLOOKUP($A$24,利润表!$B:O,COLUMN(),0)</f>
         <v>50776301000</v>
       </c>
-      <c r="L24" s="61">
+      <c r="L24" s="60">
         <f>VLOOKUP($A$24,利润表!$B:P,COLUMN(),0)</f>
         <v>33954939086.189999</v>
       </c>
@@ -3961,50 +3807,50 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:F,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:F,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:F,COLUMN()+1,0)</f>
         <v>0.18768502424346231</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:G,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:G,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:G,COLUMN()+1,0)</f>
         <v>0.35549482865957893</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:H,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:H,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:H,COLUMN()+1,0)</f>
         <v>0.45614653228777075</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:I,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:I,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:I,COLUMN()+1,0)</f>
         <v>0.646691084116922</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:J,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:J,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:J,COLUMN()+1,0)</f>
         <v>-8.1068691667607919E-3</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:K,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:K,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:K,COLUMN()+1,0)</f>
         <v>-0.2270522426338118</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:L,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:L,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:L,COLUMN()+1,0)</f>
         <v>-0.18654065365066175</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:M,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:M,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:M,COLUMN()+1,0)</f>
         <v>-0.20291557634351176</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:N,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:N,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:N,COLUMN()+1,0)</f>
         <v>-7.7708811439415409E-2</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="52">
         <f>(VLOOKUP($A$24,利润表!$B:O,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:O,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:O,COLUMN()+1,0)</f>
         <v>0.49540250598333457</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="53">
         <f>(VLOOKUP($A$24,利润表!$B:P,COLUMN(),0)-VLOOKUP($A$24,利润表!$B:P,COLUMN()+1,0))/VLOOKUP($A$24,利润表!$B:P,COLUMN()+1,0)</f>
         <v>0.78937977048765506</v>
       </c>
@@ -4023,100 +3869,100 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:F,COLUMN(),0)</f>
         <v>16010797000</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:G,COLUMN(),0)</f>
         <v>13265375000</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:H,COLUMN(),0)</f>
         <v>10526899000</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:I,COLUMN(),0)</f>
         <v>8564501000</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:J,COLUMN(),0)</f>
         <v>3249450000</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:K,COLUMN(),0)</f>
         <v>2696916000</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:L,COLUMN(),0)</f>
         <v>1231939000</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:M,COLUMN(),0)</f>
         <v>2769329000</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:N,COLUMN(),0)</f>
         <v>5681738000</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="59">
         <f>VLOOKUP($A$26,现金流量表!$B:O,COLUMN(),0)</f>
         <v>2279027000</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26" s="60">
         <f>VLOOKUP($A$26,现金流量表!$B:P,COLUMN(),0)</f>
         <v>6749124249.3999996</v>
       </c>
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:F,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:F,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:F,COLUMN()+1,0)</f>
         <v>0.20696150693063708</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:G,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:G,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:G,COLUMN()+1,0)</f>
         <v>0.26014080689859376</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:H,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:H,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:H,COLUMN()+1,0)</f>
         <v>0.22913162132855142</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:I,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:I,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:I,COLUMN()+1,0)</f>
         <v>1.6356771145886226</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:J,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:J,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:J,COLUMN()+1,0)</f>
         <v>0.20487623641225755</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:K,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:K,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:K,COLUMN()+1,0)</f>
         <v>1.1891635868334389</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:L,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:L,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:L,COLUMN()+1,0)</f>
         <v>-0.55514891874529892</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:M,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:M,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:M,COLUMN()+1,0)</f>
         <v>-0.51259121768726401</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:N,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:N,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:N,COLUMN()+1,0)</f>
         <v>1.4930542727225258</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="52">
         <f>(VLOOKUP($A$26,现金流量表!$B:O,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:O,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:O,COLUMN()+1,0)</f>
         <v>-0.66232255981913413</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="53">
         <f>(VLOOKUP($A$26,现金流量表!$B:P,COLUMN(),0)-VLOOKUP($A$26,现金流量表!$B:P,COLUMN()+1,0))/VLOOKUP($A$26,现金流量表!$B:P,COLUMN()+1,0)</f>
         <v>0.44214350159774307</v>
       </c>
@@ -4135,100 +3981,100 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:F,COLUMN(),0)</f>
         <v>1.7042999999999999</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:G,COLUMN(),0)</f>
         <v>1.3594999999999999</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:H,COLUMN(),0)</f>
         <v>0.79069999999999996</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:I,COLUMN(),0)</f>
         <v>0.27329999999999999</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:J,COLUMN(),0)</f>
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="64">
         <f>VLOOKUP($A$28,利润表!$B:K,COLUMN(),0)</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:L,COLUMN(),0)</f>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:M,COLUMN(),0)</f>
         <v>0.38100000000000001</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:N,COLUMN(),0)</f>
         <v>0.75</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="63">
         <f>VLOOKUP($A$28,利润表!$B:O,COLUMN(),0)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="65">
         <f>VLOOKUP($A$28,利润表!$B:P,COLUMN(),0)</f>
         <v>0.73899999999999999</v>
       </c>
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:F,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:F,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:F,COLUMN()+1,0)</f>
         <v>0.25362265538801032</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:G,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:G,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:G,COLUMN()+1,0)</f>
         <v>0.71936259011002912</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:H,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:H,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:H,COLUMN()+1,0)</f>
         <v>1.8931577021587997</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:I,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:I,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:I,COLUMN()+1,0)</f>
         <v>9.2359550561797743</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:J,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:J,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:J,COLUMN()+1,0)</f>
         <v>37.142857142857146</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:K,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:K,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:K,COLUMN()+1,0)</f>
         <v>-0.99247311827956985</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:L,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:L,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:L,COLUMN()+1,0)</f>
         <v>-0.75590551181102372</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:M,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:M,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:M,COLUMN()+1,0)</f>
         <v>-0.49199999999999999</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:N,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:N,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:N,COLUMN()+1,0)</f>
         <v>-0.34210526315789469</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="52">
         <f>(VLOOKUP($A$28,利润表!$B:O,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:O,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:O,COLUMN()+1,0)</f>
         <v>0.54262516914749648</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="53">
         <f>(VLOOKUP($A$28,利润表!$B:P,COLUMN(),0)-VLOOKUP($A$28,利润表!$B:P,COLUMN()+1,0))/VLOOKUP($A$28,利润表!$B:P,COLUMN()+1,0)</f>
         <v>0.4211538461538461</v>
       </c>
@@ -4247,218 +4093,218 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:F,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:F,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:F,COLUMN(),0)</f>
         <v>0.30850739686797468</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:G,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:G,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:G,COLUMN(),0)</f>
         <v>0.32687824717547276</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:H,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:H,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:H,COLUMN(),0)</f>
         <v>0.30621794067031943</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:I,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:I,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:I,COLUMN(),0)</f>
         <v>0.30074886748007118</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:J,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:J,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:J,COLUMN(),0)</f>
         <v>0.262055460996856</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:K,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:K,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:K,COLUMN(),0)</f>
         <v>0.24622503386507816</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:L,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:L,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:L,COLUMN(),0)</f>
         <v>0.25773498791574606</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:M,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:M,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:M,COLUMN(),0)</f>
         <v>0.26187378927659721</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:N,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:N,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:N,COLUMN(),0)</f>
         <v>0.31746985166836122</v>
       </c>
-      <c r="K30" s="55">
+      <c r="K30" s="54">
         <f>(VLOOKUP("营业收入",利润表!$B:O,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:O,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:O,COLUMN(),0)</f>
         <v>0.364817240231816</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="55">
         <f>(VLOOKUP("营业收入",利润表!$B:P,COLUMN(),0)-VLOOKUP("营业成本",利润表!$B:P,COLUMN(),0))/VLOOKUP("营业收入",利润表!$B:P,COLUMN(),0)</f>
         <v>0.36852080665487841</v>
       </c>
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="52">
         <f>B22/B24</f>
         <v>0.16393274779454858</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="52">
         <f t="shared" ref="C31:L31" si="6">C22/C24</f>
         <v>0.15191082465833952</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="52">
         <f t="shared" si="6"/>
         <v>0.11292219930154515</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="52">
         <f t="shared" si="6"/>
         <v>5.809521183556985E-2</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="52">
         <f t="shared" si="6"/>
         <v>7.0360177580206795E-3</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="52">
         <f t="shared" si="6"/>
         <v>1.9283910763468604E-4</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="52">
         <f t="shared" si="6"/>
         <v>2.4896392099239113E-2</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="52">
         <f t="shared" si="6"/>
         <v>8.2909909989554734E-2</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="52">
         <f t="shared" si="6"/>
         <v>0.12834963341759814</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="52">
         <f t="shared" si="6"/>
         <v>0.18436860928487092</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="53">
         <f t="shared" si="6"/>
         <v>0.18153551919158076</v>
       </c>
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
       <c r="M32" s="28"/>
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="61" t="s">
         <v>534</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:C,COLUMN(),0)</f>
         <v>50329000</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:D,COLUMN(),0)</f>
         <v>50165000</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:E,COLUMN(),0)</f>
         <v>49412000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:F,COLUMN(),0)</f>
         <v>49445000</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:G,COLUMN(),0)</f>
         <v>49140000</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:H,COLUMN(),0)</f>
         <v>49452000</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:I,COLUMN(),0)</f>
         <v>49428000</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:J,COLUMN(),0)</f>
         <v>50847000</v>
       </c>
-      <c r="J33" s="57">
+      <c r="J33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:K,COLUMN(),0)</f>
         <v>51658000</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="56">
         <f>VLOOKUP("*商誉",资产负债表!$B:L,COLUMN(),0)</f>
         <v>49878000</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L33" s="57">
         <f>VLOOKUP("*商誉",资产负债表!$B:M,COLUMN(),0)</f>
         <v>50305000</v>
       </c>
       <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="69">
         <f>B26/B22</f>
         <v>1.0867923024724346</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="69">
         <f t="shared" ref="C34:L34" si="7">C26/C22</f>
         <v>1.1540680335410627</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="69">
         <f t="shared" si="7"/>
         <v>1.6700120108124281</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="69">
         <f t="shared" si="7"/>
         <v>3.8456102932757394</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="69">
         <f t="shared" si="7"/>
         <v>19.83803319922588</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="69">
         <f t="shared" si="7"/>
         <v>595.87185152452491</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="69">
         <f t="shared" si="7"/>
         <v>1.6296092976988565</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="69">
         <f t="shared" si="7"/>
         <v>0.89481791051720727</v>
       </c>
-      <c r="J34" s="70">
+      <c r="J34" s="69">
         <f t="shared" si="7"/>
         <v>0.94527343153405885</v>
       </c>
-      <c r="K34" s="70">
+      <c r="K34" s="69">
         <f t="shared" si="7"/>
         <v>0.2434453204146832</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="70">
         <f t="shared" si="7"/>
         <v>1.0949211783427872</v>
       </c>
@@ -4502,16 +4348,16 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="Q1:X1">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:X1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
